--- a/medicine/Psychotrope/Delta_Cafés/Delta_Cafés.xlsx
+++ b/medicine/Psychotrope/Delta_Cafés/Delta_Cafés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Delta_Caf%C3%A9s</t>
+          <t>Delta_Cafés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Delta Cafés est une marque portugaise et une entreprise de torréfaction et de conditionnement du café basée à Campo Maior, Alentejo, fondée en 1961. La société fait partie du groupe Nabeiro[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delta Cafés est une marque portugaise et une entreprise de torréfaction et de conditionnement du café basée à Campo Maior, Alentejo, fondée en 1961. La société fait partie du groupe Nabeiro.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Delta_Caf%C3%A9s</t>
+          <t>Delta_Cafés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été fondée en 1961 par Rui Nabeiro avec Bernardo Morão, dans un petit entrepôt de 50 m2, deux boules à rôtir d'une capacité de 30 kg et trois employés marquent le début de la marque. En 1994, elle est devenue le leader du marché au Portugal, avec une part de 42%. Elle compte 41 000 clients directs et 3 000 employés.
-C'est au milieu des années 1970 que les Delta Cafés se sont consolidés : développement de nouveaux produits et services de qualité mondiale. En 1984, Manuel Rui Azinhais Nabeiro Lda. a séparé l'activité commerciale de l'activité industrielle développée par NovaDelta SA. Ce parcours atteint son apogée en 1998, lors de la réorganisation du groupe Nabeiro/Delta Cafés, avec la création de 22 entreprises, organisées par zones stratégiques pour renforcer l'activité principale du groupe[1].
-Delta en chiffres
-Delta Cafés achète 42 000 tonnes de café par an, soit 450 000 sacs au total. Cent tonnes sont grillées chaque jour et 6,267 millions de tasses (bicas) sont consommées chaque jour sur tout le territoire portugais.
+C'est au milieu des années 1970 que les Delta Cafés se sont consolidés : développement de nouveaux produits et services de qualité mondiale. En 1984, Manuel Rui Azinhais Nabeiro Lda. a séparé l'activité commerciale de l'activité industrielle développée par NovaDelta SA. Ce parcours atteint son apogée en 1998, lors de la réorganisation du groupe Nabeiro/Delta Cafés, avec la création de 22 entreprises, organisées par zones stratégiques pour renforcer l'activité principale du groupe.
 </t>
         </is>
       </c>
@@ -527,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Delta_Caf%C3%A9s</t>
+          <t>Delta_Cafés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Delta en chiffres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delta Cafés achète 42 000 tonnes de café par an, soit 450 000 sacs au total. Cent tonnes sont grillées chaque jour et 6,267 millions de tasses (bicas) sont consommées chaque jour sur tout le territoire portugais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Delta_Cafés</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delta_Caf%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Internationalisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Delta Cafés est présent dans 40 pays, à travers des opérations directes (Portugal, Espagne, France, Suisse, Luxembourg, Angola, Brésil et Chine) et indirectes (États-Unis, Canada, Mozambique, Cap-Vert, Allemagne, Pays-Bas, Belgique, Royaume-Uni, Pologne, Macao et Dubaï).
 En Espagne, NovaDelta España, créée en 1986, est l'entreprise chargée de la commercialisation des cafés de la marque Delta et de leurs produits complémentaires, ainsi que de toute la gamme de produits agroalimentaires appartenant aux marques du groupe Nabeiro.
